--- a/Dr.Herb/Tina版本.xlsx
+++ b/Dr.Herb/Tina版本.xlsx
@@ -815,8 +815,8 @@
   </sheetPr>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1637,9 +1637,15 @@
     <mergeCell ref="B24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J23">
       <formula1>$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F23 O6:P23 T6:T23">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1650,23 +1656,5 @@
 周一~周五 下午2-6時&amp;R&amp;"標楷體,標準"&amp;10藥單請保存妥善, 
 下次就診請以此單掛號</oddHeader>
   </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6:F23 O6:P23 T6:T23</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>